--- a/test.xlsx
+++ b/test.xlsx
@@ -439,7 +439,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD80"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,10 +464,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>200</v>
+        <v>4528</v>
       </c>
       <c r="C2" s="2">
-        <v>300</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -475,10 +475,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>150</v>
+        <v>2983</v>
       </c>
       <c r="C3" s="2">
-        <v>170</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -486,10 +486,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>50</v>
+        <v>1545</v>
       </c>
       <c r="C4" s="2">
-        <v>130</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -497,10 +497,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>50</v>
+        <v>1022</v>
       </c>
       <c r="C5" s="2">
-        <v>60</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -508,10 +508,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>40</v>
+        <v>304</v>
       </c>
       <c r="C6" s="2">
-        <v>30</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -519,10 +519,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="2">
-        <v>80</v>
+        <v>1240</v>
       </c>
       <c r="C7" s="2">
-        <v>100</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -530,10 +530,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -541,10 +541,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>120</v>
+        <v>1070</v>
       </c>
       <c r="C9" s="2">
-        <v>200</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -552,10 +552,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="2">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="C10" s="2">
-        <v>220</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
